--- a/CIVICS_Ghana/IO_Ghana/Indipendent Power Supply for Feed Mills/Baseline Results/100% hybrid - baseline.xlsx
+++ b/CIVICS_Ghana/IO_Ghana/Indipendent Power Supply for Feed Mills/Baseline Results/100% hybrid - baseline.xlsx
@@ -628,7 +628,7 @@
         <v>-326.6396135912073</v>
       </c>
       <c r="H4">
-        <v>-77.00739267765312</v>
+        <v>-82.64893163318629</v>
       </c>
       <c r="I4">
         <v>-15.57261713949447</v>
@@ -664,7 +664,7 @@
         <v>3266.443110362612</v>
       </c>
       <c r="T4">
-        <v>771.6923244070931</v>
+        <v>828.1077139624249</v>
       </c>
       <c r="U4">
         <v>155.7268423738042</v>
